--- a/QuantLibXL/Data2/XLS/HKD_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_MainChecks.xlsx
@@ -788,9 +788,9 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 10:37:33</v>
+        <v>Updated at 09:29:32</v>
         <stp/>
-        <stp>{F661E8BC-D4DD-43D4-B4A6-B6DFA28CE3F1}</stp>
+        <stp>{34F68D1F-9AFB-4FFE-8494-ECE0C4918196}</stp>
         <tr r="I3" s="2"/>
       </tp>
     </main>
@@ -940,7 +940,7 @@
       <sheetData sheetId="6">
         <row r="22">
           <cell r="D22" t="str">
-            <v>V5</v>
+            <v>F6</v>
           </cell>
         </row>
       </sheetData>
@@ -1269,7 +1269,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="6" hidden="1" customWidth="1"/>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1354,8 +1354,8 @@
         <v>HKDSTD</v>
       </c>
       <c r="C3" s="49">
-        <f>_xll.qlSettingsEvaluationDate(ISERROR(Trigger))</f>
-        <v>41736</v>
+        <f>_xll.qlCalendarAdjust(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlSettingsEvaluationDate(ISERROR(Trigger)),"f")</f>
+        <v>41822</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="18">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I3" s="46" t="str">
         <f>_xll.RData(H4,"LAST",,"FRQ:1S",,I4)</f>
-        <v>Updated at 10:37:33</v>
+        <v>Updated at 09:29:32</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="5"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C4" s="41">
         <f>EvaluationDate</f>
-        <v>41736</v>
+        <v>41822</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="18">
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="45">
-        <v>123.6875</v>
+        <v>124.921875</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="5"/>
@@ -1437,8 +1437,8 @@
         <v>HKD1M</v>
       </c>
       <c r="C5" s="41">
-        <f>EvaluationDate</f>
-        <v>41736</v>
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlSettingsEvaluationDate(ISERROR(Trigger)),_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41822</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18">
@@ -1479,8 +1479,8 @@
         <v>HKD3M</v>
       </c>
       <c r="C6" s="41">
-        <f>EvaluationDate</f>
-        <v>41736</v>
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlSettingsEvaluationDate(ISERROR(Trigger)),_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41822</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18">
@@ -1521,8 +1521,8 @@
         <v>HKD6M</v>
       </c>
       <c r="C7" s="41">
-        <f>EvaluationDate</f>
-        <v>41736</v>
+        <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlSettingsEvaluationDate(ISERROR(Trigger)),_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
+        <v>41822</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18">
@@ -1560,12 +1560,12 @@
       <c r="B8" s="24"/>
       <c r="C8" s="42">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-2D","Preceding")</f>
-        <v>41732</v>
+        <v>41817</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="26">
         <f>_xll.qlIndexFixing(FirstIndex,C8)</f>
-        <v>3.7357000000000002E-3</v>
+        <v>3.7713999999999998E-3</v>
       </c>
       <c r="F8" s="15" t="str">
         <f>IF(ISERROR(C8),_xll.ohRangeRetrieveError(C8),_xll.ohRangeRetrieveError(E8))</f>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I8" s="21">
         <f>_xll.qlFunctionCount(Trigger)+_xll.ohFunctionCount(Trigger)</f>
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="5"/>
@@ -1599,12 +1599,12 @@
       <c r="B9" s="27"/>
       <c r="C9" s="43">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),EvaluationDate,"-1D","Preceding")</f>
-        <v>41733</v>
+        <v>41820</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="29">
         <f>_xll.qlIndexFixing(FirstIndex,C9)</f>
-        <v>3.7286000000000003E-3</v>
+        <v>3.7929000000000001E-3</v>
       </c>
       <c r="F9" s="19" t="str">
         <f>IF(ISERROR(C9),_xll.ohRangeRetrieveError(C9),_xll.ohRangeRetrieveError(E9))</f>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="C10" s="43">
         <f>EvaluationDate</f>
-        <v>41736</v>
+        <v>41822</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29">
         <f>_xll.qlIndexFixing(FirstIndex,C10)</f>
-        <v>3.7142999999999998E-3</v>
+        <v>3.8285999999999997E-3</v>
       </c>
       <c r="F10" s="19" t="str">
         <f>IF(ISERROR(C10),_xll.ohRangeRetrieveError(C10),_xll.ohRangeRetrieveError(E10))</f>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="I10" s="23" t="str">
         <f>_xll.qlVersion(Trigger)</f>
-        <v>1.4.1</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="5"/>
@@ -1680,12 +1680,12 @@
       <c r="B11" s="30"/>
       <c r="C11" s="44">
         <f>_xll.qlCalendarAdvance(_xll.qlIndexFixingCalendar(FirstIndex),_xll.qlIMMNextDate(_xll.qlIMMNextDate(EvaluationDate+1)+1),-_xll.qlInterestRateIndexFixingDays(FirstIndex)&amp;"D")</f>
-        <v>41899</v>
+        <v>41990</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32">
         <f>_xll.qlIndexFixing(FirstIndex,C11,TRUE)</f>
-        <v>4.4378799697471841E-3</v>
+        <v>4.2294373283367683E-3</v>
       </c>
       <c r="F11" s="33" t="str">
         <f>IF(ISERROR(C11),_xll.ohRangeRetrieveError(C11),_xll.ohRangeRetrieveError(E11))</f>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="I11" s="35" t="str">
         <f>_xll.ohVersion(Trigger)</f>
-        <v>1.4.0</v>
+        <v>1.5.0</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="5"/>
@@ -2871,7 +2871,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+        <control shapeId="1026" r:id="rId4" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -2891,12 +2891,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+        <control shapeId="1025" r:id="rId6" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -2916,7 +2916,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/QuantLibXL/Data2/XLS/HKD_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_MainChecks.xlsx
@@ -9,16 +9,13 @@
   <sheets>
     <sheet name="MainChecks" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">MainChecks!$U$4</definedName>
-    <definedName name="FirstIndex">MainChecks!$K$11</definedName>
+    <definedName name="FirstIndex">MainChecks!$K$10</definedName>
     <definedName name="FuturesDates">MainChecks!$C$14:$C$17</definedName>
     <definedName name="FuturesTable">MainChecks!$A$4:$H$12</definedName>
     <definedName name="IMMFutures">MainChecks!$D$14:$D$17</definedName>
-    <definedName name="InterestRatesTrigger">MainChecks!$Q$8</definedName>
+    <definedName name="InterestRatesTrigger">MainChecks!#REF!</definedName>
     <definedName name="TenYearsBondFutures">MainChecks!$C$4:$C$6</definedName>
     <definedName name="Trigger">MainChecks!$U$2</definedName>
   </definedNames>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>ObjectID</t>
   </si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>MarketData Checks</t>
-  </si>
-  <si>
-    <t># Mkt Updates</t>
   </si>
   <si>
     <t>Reference Date</t>
@@ -537,7 +531,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -550,12 +544,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,9 +572,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,15 +605,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,34 +735,34 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 12:55:37</v>
+        <v>Updated at 15:28:25</v>
         <stp/>
-        <stp>{7470F258-4C04-44C9-AC6E-4D6ACF7F6F21}</stp>
+        <stp>{493A38A7-5F73-4AB7-B149-DC0CD9847E6D}</stp>
+        <tr r="Q6" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:28:25</v>
+        <stp/>
+        <stp>{847F3B1B-F65D-468D-B31F-41C8C3317B94}</stp>
         <tr r="P7" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:55:37</v>
+        <v>Updated at 15:28:55</v>
         <stp/>
-        <stp>{D244D8E1-8311-44AC-9185-A0A95BB040D5}</stp>
-        <tr r="Q7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:59:06</v>
-        <stp/>
-        <stp>{43463BD6-FE18-4CA1-B684-F6B09F6E50DD}</stp>
+        <stp>{E4E14ED9-1E63-4C54-8451-3F7B0033B93F}</stp>
         <tr r="Q5" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:55:37</v>
+        <v>Updated at 15:28:25</v>
         <stp/>
-        <stp>{76946CC1-CDB0-43E4-9753-73C3C54166A3}</stp>
+        <stp>{D2C444F9-619F-4417-BD37-1E50B4B1888F}</stp>
         <tr r="P6" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:55:37</v>
+        <v>Updated at 15:28:25</v>
         <stp/>
-        <stp>{A645A5B2-D2CE-433F-983E-F275BE95D547}</stp>
-        <tr r="Q6" s="2"/>
+        <stp>{80818D9C-6979-4589-8DDB-942AD5A1F7DE}</stp>
+        <tr r="Q7" s="2"/>
       </tp>
     </main>
   </volType>
@@ -886,84 +862,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="General Settings"/>
-      <sheetName val="Hibor"/>
-      <sheetName val="Hibor Time Series"/>
-      <sheetName val="OIS"/>
-      <sheetName val="Deposits"/>
-      <sheetName val="FRA"/>
-      <sheetName val="Futures3M"/>
-      <sheetName val="Swaps1M"/>
-      <sheetName val="Swap3M"/>
-      <sheetName val="BasisSwap1M3M"/>
-      <sheetName val="BasisSwap3M6M"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="TriggerCounter" refersTo="='General Settings'!$D$22"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="22">
-          <cell r="D22">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>21M</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>HKD3x9F_Quote</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>F6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>3H</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>6L</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,13 +1242,13 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="19"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1378,17 +1276,17 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
       <c r="R3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -1414,52 +1312,52 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="20" t="s">
+      <c r="L4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="S4" s="1"/>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="14" t="s">
-        <v>20</v>
+      <c r="U4" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1479,57 +1377,57 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>50</v>
+      <c r="F5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="28">
         <v>41890</v>
       </c>
-      <c r="M5" s="53">
-        <v>147.58000000000001</v>
-      </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33" t="str">
+      <c r="M5" s="47">
+        <v>150.35</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30" t="str">
         <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 12:59:06</v>
+        <v>Updated at 15:28:55</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="14" t="str">
-        <f>_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
-        <v>1_52 / 1.5.0 / 1.5</v>
+      <c r="U5" s="12" t="e">
+        <f ca="1">_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1549,65 +1447,65 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="28">
+      <c r="J6" s="21"/>
+      <c r="K6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="25">
         <v>42170</v>
       </c>
-      <c r="M6" s="40" t="str">
+      <c r="M6" s="34" t="str">
         <f>N6&amp;"/"&amp;O6</f>
-        <v>99.29/99.38</v>
-      </c>
-      <c r="N6" s="34">
-        <v>99.29</v>
-      </c>
-      <c r="O6" s="34">
-        <v>99.38</v>
-      </c>
-      <c r="P6" s="34" t="str">
+        <v>99.32/99.4</v>
+      </c>
+      <c r="N6" s="31">
+        <v>99.320000000000007</v>
+      </c>
+      <c r="O6" s="31">
+        <v>99.4</v>
+      </c>
+      <c r="P6" s="31" t="str">
         <f>_xll.RData(K6,{"BID","ASK"},,"FRQ:1S",,N6)</f>
-        <v>Updated at 12:55:37</v>
-      </c>
-      <c r="Q6" s="35" t="str">
+        <v>Updated at 15:28:25</v>
+      </c>
+      <c r="Q6" s="32" t="str">
         <f>_xll.RData(K6,{"EXPIR_DATE"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 12:55:37</v>
+        <v>Updated at 15:28:25</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="14">
-        <f>_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>415</v>
+      <c r="U6" s="12" t="e">
+        <f ca="1">_xll.ohRepositoryObjectCount(Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1627,56 +1525,56 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="F7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>52</v>
+      <c r="G7" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="27" t="str">
+      <c r="J7" s="21"/>
+      <c r="K7" s="24" t="str">
         <f>Currency&amp;VLOOKUP(Currency,FuturesTable,5,0)&amp;VLOOKUP(Currency,FuturesTable,6,0)&amp;"10Y"</f>
         <v>HKDQM3H10Y</v>
       </c>
-      <c r="L7" s="28">
-        <v>41834</v>
-      </c>
-      <c r="M7" s="40" t="str">
+      <c r="L7" s="25">
+        <v>41873</v>
+      </c>
+      <c r="M7" s="34" t="str">
         <f>N7&amp;"/"&amp;O7</f>
-        <v>2.48/2.58</v>
-      </c>
-      <c r="N7" s="34">
-        <v>2.48</v>
-      </c>
-      <c r="O7" s="34">
-        <v>2.58</v>
-      </c>
-      <c r="P7" s="34" t="str">
+        <v>2.34/2.44</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2.34</v>
+      </c>
+      <c r="O7" s="31">
+        <v>2.44</v>
+      </c>
+      <c r="P7" s="31" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 12:55:37</v>
-      </c>
-      <c r="Q7" s="35" t="str">
+        <v>Updated at 15:28:25</v>
+      </c>
+      <c r="Q7" s="32" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 12:55:37</v>
+        <v>Updated at 15:28:25</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1697,45 +1595,42 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38">
-        <f>[1]!TriggerCounter</f>
-        <v>2</v>
-      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1756,42 +1651,48 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="F9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>51</v>
+      <c r="G9" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
+      <c r="K9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="R9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1814,34 +1715,38 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="20" t="s">
+      <c r="K10" s="22" t="str">
+        <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
+        <v>HkdHibor3M</v>
+      </c>
+      <c r="L10" s="23" t="e">
+        <f ca="1">_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="33" t="e">
+        <f ca="1">_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="35" t="e">
+        <f ca="1">IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1864,38 +1769,38 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="8"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="25" t="str">
-        <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
-        <v>HkdHibor3M</v>
-      </c>
-      <c r="L11" s="26">
-        <f>_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="M11" s="39">
-        <f>_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>3.7786000000000004E-3</v>
-      </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="41" t="str">
-        <f>IF(AND(ISERROR(L11),ISERROR(M11)),_xll.ohRangeRetrieveError(L11)&amp;" "&amp;_xll.ohRangeRetrieveError(M11),IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11)))</f>
-        <v/>
+      <c r="K11" s="24" t="str">
+        <f>UPPER(Currency)&amp;"STD"</f>
+        <v>HKDSTD</v>
+      </c>
+      <c r="L11" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K11,L11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="36" t="e">
+        <f ca="1">IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1917,47 +1822,47 @@
       <c r="AJ11" s="3"/>
     </row>
     <row r="12" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="27" t="str">
-        <f>UPPER(Currency)&amp;"STD"</f>
-        <v>HKDSTD</v>
-      </c>
-      <c r="L12" s="28">
-        <f>_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="M12" s="29">
-        <f>_xll.qlYieldTSDiscount(K12,L12)</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="42" t="str">
-        <f>IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
-        <v/>
+      <c r="K12" s="24" t="str">
+        <f>UPPER(Currency)&amp;"ON"</f>
+        <v>HKDON</v>
+      </c>
+      <c r="L12" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K12,L12)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="36" t="e">
+        <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1989,27 +1894,27 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="27" t="str">
-        <f>UPPER(Currency)&amp;"ON"</f>
-        <v>HKDON</v>
-      </c>
-      <c r="L13" s="28">
-        <f>_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="M13" s="29">
-        <f>_xll.qlYieldTSDiscount(K13,L13)</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="42" t="str">
-        <f>IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
-        <v/>
+      <c r="K13" s="24" t="str">
+        <f>UPPER(Currency)&amp;"1M"</f>
+        <v>HKD1M</v>
+      </c>
+      <c r="L13" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M13" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K13,L13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="37" t="e">
+        <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2035,13 +1940,13 @@
       <c r="B14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="45">
-        <f t="array" ref="C14:C17">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
-        <v>41899</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f t="array" ref="D14:D17">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
-        <v>HIRU4</v>
+      <c r="C14" s="39" t="e">
+        <f t="array" aca="1" ref="C14:C17" ca="1">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f t="array" aca="1" ref="D14:D17" ca="1">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2049,27 +1954,27 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="27" t="str">
-        <f>UPPER(Currency)&amp;"1M"</f>
-        <v>HKD1M</v>
-      </c>
-      <c r="L14" s="28">
-        <f>_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="M14" s="29">
-        <f>_xll.qlYieldTSDiscount(K14,L14)</f>
-        <v>1</v>
-      </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="43" t="str">
-        <f>IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
-        <v/>
+      <c r="K14" s="24" t="str">
+        <f>UPPER(Currency)&amp;"3M"</f>
+        <v>HKD3M</v>
+      </c>
+      <c r="L14" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M14" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K14,L14)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="37" t="e">
+        <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2092,14 +1997,16 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="48" t="b">
+      <c r="B15" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="46">
-        <v>41990</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <v>HIRZ4</v>
+      <c r="C15" s="40" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2107,27 +2014,27 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="27" t="str">
-        <f>UPPER(Currency)&amp;"3M"</f>
-        <v>HKD3M</v>
-      </c>
-      <c r="L15" s="28">
-        <f>_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="M15" s="29">
-        <f>_xll.qlYieldTSDiscount(K15,L15)</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="43" t="str">
-        <f>IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
-        <v/>
+      <c r="K15" s="24" t="str">
+        <f>UPPER(Currency)&amp;"6M"</f>
+        <v>HKD6M</v>
+      </c>
+      <c r="L15" s="25" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M15" s="26" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K15,L15)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="37" t="e">
+        <f ca="1">IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2148,44 +2055,34 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="48" t="b">
+      <c r="B16" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="46">
-        <v>42081</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <v>HIRH5</v>
+      <c r="C16" s="40" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="27" t="str">
-        <f>UPPER(Currency)&amp;"6M"</f>
-        <v>HKD6M</v>
-      </c>
-      <c r="L16" s="28">
-        <f>_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
-        <v>41834</v>
-      </c>
-      <c r="M16" s="29">
-        <f>_xll.qlYieldTSDiscount(K16,L16)</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="43" t="str">
-        <f>IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
-        <v/>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>14</v>
+      <c r="J16" s="9"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2208,31 +2105,31 @@
     </row>
     <row r="17" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="49" t="b">
+      <c r="B17" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="47">
-        <v>42172</v>
-      </c>
-      <c r="D17" s="11" t="str">
-        <v>HIRM5</v>
+      <c r="C17" s="41" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -3144,7 +3041,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="R41" s="3"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -3174,14 +3071,14 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -5406,8 +5303,18 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="1:36" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:36" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+    </row>
+    <row r="102" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -5439,7 +5346,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="CommandButton2">
+        <control shapeId="1025" r:id="rId4" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5459,12 +5366,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="CommandButton1">
+        <control shapeId="1026" r:id="rId6" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5484,7 +5391,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/QuantLibXL/Data2/XLS/HKD_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_MainChecks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="-15" windowWidth="9630" windowHeight="12015"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7665" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="MainChecks" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>ObjectID</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>HIRM5</t>
+  </si>
+  <si>
+    <t>JGBc1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>TRHK</t>
+  </si>
+  <si>
+    <t>Shibor</t>
   </si>
 </sst>
 </file>
@@ -200,7 +215,7 @@
     <numFmt numFmtId="171" formatCode="ddd\,\ dd\-mmm\-yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="172" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -257,6 +272,10 @@
       <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -518,7 +537,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -530,8 +549,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -542,7 +562,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -622,7 +641,6 @@
     <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -632,19 +650,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="1"/>
     <cellStyle name="Migliaia_AZIONI" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="9"/>
     <cellStyle name="Normale_AZIONI" xfId="3"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
@@ -735,33 +766,33 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 15:28:25</v>
+        <v>Updated at 17:24:40</v>
         <stp/>
-        <stp>{493A38A7-5F73-4AB7-B149-DC0CD9847E6D}</stp>
+        <stp>{AA7FB9F7-513C-46E3-9E4B-BB4871495676}</stp>
+        <tr r="Q5" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:23:31</v>
+        <stp/>
+        <stp>{241A229B-AED9-4CB7-992A-D91058794C9C}</stp>
+        <tr r="P7" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 17:23:31</v>
+        <stp/>
+        <stp>{DDBC98C6-AF43-45F4-AD96-8969733D1CD0}</stp>
         <tr r="Q6" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:28:25</v>
+        <v>Updated at 17:23:31</v>
         <stp/>
-        <stp>{847F3B1B-F65D-468D-B31F-41C8C3317B94}</stp>
-        <tr r="P7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:28:55</v>
-        <stp/>
-        <stp>{E4E14ED9-1E63-4C54-8451-3F7B0033B93F}</stp>
-        <tr r="Q5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:28:25</v>
-        <stp/>
-        <stp>{D2C444F9-619F-4417-BD37-1E50B4B1888F}</stp>
+        <stp>{26D909FD-D941-4442-A498-DD2F7C63C3A2}</stp>
         <tr r="P6" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:28:25</v>
+        <v>Updated at 17:23:31</v>
         <stp/>
-        <stp>{80818D9C-6979-4589-8DDB-942AD5A1F7DE}</stp>
+        <stp>{1FC9E091-F998-4427-9456-564B295FC034}</stp>
         <tr r="Q7" s="2"/>
       </tp>
     </main>
@@ -1164,12 +1195,11 @@
   <cols>
     <col min="1" max="1" width="4" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="5" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="6" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="7" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="3" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="4" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="5" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="6" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="7" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="2.7109375" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1245,10 +1275,10 @@
         <v>13</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="19"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1276,15 +1306,15 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1308,55 +1338,55 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="47" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="18" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="1"/>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="V4" s="1"/>
@@ -1376,56 +1406,57 @@
       <c r="AJ4" s="3"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="50" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="28">
-        <v>41890</v>
-      </c>
-      <c r="M5" s="47">
-        <v>150.35</v>
-      </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30" t="str">
+      <c r="K5" s="26" t="str">
+        <f>VLOOKUP(Currency,FuturesTable,3,0)</f>
+        <v>TYcm1t</v>
+      </c>
+      <c r="L5" s="27">
+        <v>41992</v>
+      </c>
+      <c r="M5" s="44">
+        <v>125.828125</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="29" t="str">
         <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 15:28:55</v>
+        <v>Updated at 17:24:40</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="12" t="e">
+      <c r="U5" s="11" t="e">
         <f ca="1">_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
         <v>#NAME?</v>
       </c>
@@ -1446,64 +1477,64 @@
       <c r="AJ5" s="3"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="50" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="24" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <v>42170</v>
       </c>
-      <c r="M6" s="34" t="str">
+      <c r="M6" s="33" t="str">
         <f>N6&amp;"/"&amp;O6</f>
-        <v>99.32/99.4</v>
-      </c>
-      <c r="N6" s="31">
-        <v>99.320000000000007</v>
-      </c>
-      <c r="O6" s="31">
-        <v>99.4</v>
-      </c>
-      <c r="P6" s="31" t="str">
+        <v>99.36/99.46</v>
+      </c>
+      <c r="N6" s="30">
+        <v>99.36</v>
+      </c>
+      <c r="O6" s="30">
+        <v>99.460000000000008</v>
+      </c>
+      <c r="P6" s="30" t="str">
         <f>_xll.RData(K6,{"BID","ASK"},,"FRQ:1S",,N6)</f>
-        <v>Updated at 15:28:25</v>
-      </c>
-      <c r="Q6" s="32" t="str">
+        <v>Updated at 17:23:31</v>
+      </c>
+      <c r="Q6" s="31" t="str">
         <f>_xll.RData(K6,{"EXPIR_DATE"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 15:28:25</v>
+        <v>Updated at 17:23:31</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="12" t="e">
+      <c r="U6" s="11" t="e">
         <f ca="1">_xll.ohRepositoryObjectCount(Trigger)</f>
         <v>#NAME?</v>
       </c>
@@ -1524,54 +1555,56 @@
       <c r="AJ6" s="3"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="50" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="24" t="str">
+      <c r="J7" s="20"/>
+      <c r="K7" s="23" t="str">
         <f>Currency&amp;VLOOKUP(Currency,FuturesTable,5,0)&amp;VLOOKUP(Currency,FuturesTable,6,0)&amp;"10Y"</f>
         <v>HKDQM3H10Y</v>
       </c>
-      <c r="L7" s="25">
-        <v>41873</v>
-      </c>
-      <c r="M7" s="34" t="str">
+      <c r="L7" s="24">
+        <v>41919</v>
+      </c>
+      <c r="M7" s="33" t="str">
         <f>N7&amp;"/"&amp;O7</f>
         <v>2.34/2.44</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="30">
         <v>2.34</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="30">
         <v>2.44</v>
       </c>
-      <c r="P7" s="31" t="str">
+      <c r="P7" s="30" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 15:28:25</v>
-      </c>
-      <c r="Q7" s="32" t="str">
+        <v>Updated at 17:23:31</v>
+      </c>
+      <c r="Q7" s="31" t="str">
         <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 15:28:25</v>
+        <v>Updated at 17:23:31</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>13</v>
@@ -1596,39 +1629,41 @@
       <c r="AJ7" s="3"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="50" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1652,43 +1687,45 @@
       <c r="AJ8" s="3"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="50" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="18" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R9" s="8" t="s">
@@ -1714,34 +1751,48 @@
       <c r="AJ9" s="3"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>57</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="22" t="str">
+      <c r="K10" s="21" t="str">
         <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
         <v>HkdHibor3M</v>
       </c>
-      <c r="L10" s="23" t="e">
+      <c r="L10" s="22" t="e">
         <f ca="1">_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M10" s="33" t="e">
+      <c r="M10" s="32" t="e">
         <f ca="1">_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="35" t="e">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="34" t="e">
         <f ca="1">IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
         <v>#NAME?</v>
       </c>
@@ -1768,34 +1819,48 @@
       <c r="AJ10" s="3"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>37</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="24" t="str">
+      <c r="K11" s="23" t="str">
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>HKDSTD</v>
       </c>
-      <c r="L11" s="25" t="e">
+      <c r="L11" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="26" t="e">
+      <c r="M11" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K11,L11)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="36" t="e">
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="35" t="e">
         <f ca="1">IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
         <v>#NAME?</v>
       </c>
@@ -1822,42 +1887,42 @@
       <c r="AJ11" s="3"/>
     </row>
     <row r="12" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="54"/>
+      <c r="H12" s="55" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="24" t="str">
+      <c r="K12" s="23" t="str">
         <f>UPPER(Currency)&amp;"ON"</f>
         <v>HKDON</v>
       </c>
-      <c r="L12" s="25" t="e">
+      <c r="L12" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M12" s="26" t="e">
+      <c r="M12" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K12,L12)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="36" t="e">
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="35" t="e">
         <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
         <v>#NAME?</v>
       </c>
@@ -1894,22 +1959,22 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="24" t="str">
+      <c r="K13" s="23" t="str">
         <f>UPPER(Currency)&amp;"1M"</f>
         <v>HKD1M</v>
       </c>
-      <c r="L13" s="25" t="e">
+      <c r="L13" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M13" s="26" t="e">
+      <c r="M13" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K13,L13)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="37" t="e">
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="36" t="e">
         <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
         <v>#NAME?</v>
       </c>
@@ -1940,7 +2005,7 @@
       <c r="B14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="e">
+      <c r="C14" s="37" t="e">
         <f t="array" aca="1" ref="C14:C17" ca="1">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
         <v>#NAME?</v>
       </c>
@@ -1954,22 +2019,22 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="24" t="str">
+      <c r="K14" s="23" t="str">
         <f>UPPER(Currency)&amp;"3M"</f>
         <v>HKD3M</v>
       </c>
-      <c r="L14" s="25" t="e">
+      <c r="L14" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="26" t="e">
+      <c r="M14" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K14,L14)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="37" t="e">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="36" t="e">
         <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
         <v>#NAME?</v>
       </c>
@@ -1997,10 +2062,10 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="42" t="b">
+      <c r="B15" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="40" t="e">
+      <c r="C15" s="38" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
@@ -2014,22 +2079,22 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="24" t="str">
+      <c r="K15" s="23" t="str">
         <f>UPPER(Currency)&amp;"6M"</f>
         <v>HKD6M</v>
       </c>
-      <c r="L15" s="25" t="e">
+      <c r="L15" s="24" t="e">
         <f ca="1">_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
         <v>#NAME?</v>
       </c>
-      <c r="M15" s="26" t="e">
+      <c r="M15" s="25" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(K15,L15)</f>
         <v>#NAME?</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="37" t="e">
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="36" t="e">
         <f ca="1">IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
         <v>#NAME?</v>
       </c>
@@ -2057,10 +2122,10 @@
     </row>
     <row r="16" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="42" t="b">
+      <c r="B16" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="40" t="e">
+      <c r="C16" s="38" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
@@ -2074,14 +2139,14 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="11" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="S16" s="1"/>
@@ -2105,14 +2170,14 @@
     </row>
     <row r="17" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="43" t="b">
+      <c r="B17" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="41" t="e">
+      <c r="C17" s="39" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="11" t="e">
+      <c r="D17" s="10" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
       </c>
@@ -5303,7 +5368,7 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -5314,7 +5379,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -5327,12 +5392,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
       <formula1>"EUR,USD,GBP,JPY,CHF,AUD,CNY,CNH,HKD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
-      <formula1>TenYearsBondFutures</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
       <formula1>IMMFutures</formula1>
@@ -5346,7 +5408,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+        <control shapeId="1026" r:id="rId4" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5366,12 +5428,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+        <control shapeId="1025" r:id="rId6" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5391,7 +5453,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
